--- a/HT-3/colegio-bac01.xlsx
+++ b/HT-3/colegio-bac01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AE7917-0ACA-6540-A0DC-2E0933288BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DE005E-4E1E-4C43-A675-30F7D5485D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="540" windowWidth="17440" windowHeight="14920" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="20960" yWindow="500" windowWidth="17440" windowHeight="16340" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-01" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Acudiente del estudiante y responsable del mismo.</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -489,25 +492,25 @@
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -518,7 +521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -529,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -540,35 +543,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
